--- a/Manual-Submissions/Question 3- Usability testing.xlsx
+++ b/Manual-Submissions/Question 3- Usability testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10308" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -321,8 +321,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd&quot;-&quot;mmm&quot;-&quot;yyyy"/>
   </numFmts>
@@ -353,15 +353,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,15 +373,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,14 +392,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,18 +444,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,7 +459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -491,6 +476,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,31 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,19 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +578,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,61 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,13 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,17 +733,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,24 +781,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -822,6 +798,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -830,19 +815,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,130 +851,130 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1528,8 +1528,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1558,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="8">
-        <v>44387</v>
+        <v>44386</v>
       </c>
     </row>
   </sheetData>
@@ -8875,7 +8875,7 @@
   </sheetPr>
   <dimension ref="A1:D995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
